--- a/Stocks/LINDEINDIA.xlsx
+++ b/Stocks/LINDEINDIA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>456</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>440.05769715665281</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>437.41858357372126</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>35.585378430849133</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>0.10000000000002274</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>10.350000000000023</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>9.6618357487944454E-3</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>442.02900380636936</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-0.38776005452291429</v>
       </c>
       <c r="Y67">
         <v>1.1069262053930173</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>406.45</v>
+      </c>
+      <c r="D83">
+        <v>408.75</v>
+      </c>
+      <c r="E83">
+        <v>401.25</v>
+      </c>
+      <c r="F83">
+        <v>402</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>404</v>
+      </c>
+      <c r="H83">
+        <v>405.81633719427219</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>415.75654185986855</v>
+      </c>
+      <c r="K83">
+        <v>405.42941235934808</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N83">
+        <v>28.63159394849173</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>7.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V83">
+        <v>412.60921209901375</v>
+      </c>
+      <c r="W83">
+        <v>421.2448873433666</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-8.6356752443528535</v>
+      </c>
+      <c r="Y83">
+        <v>-7.3409966927492034</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>402.15</v>
+      </c>
+      <c r="D84">
+        <v>412</v>
+      </c>
+      <c r="E84">
+        <v>401</v>
+      </c>
+      <c r="F84">
+        <v>410.45</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>407.81666666666666</v>
+      </c>
+      <c r="H84">
+        <v>406.81650193046943</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>414.92175477989775</v>
+      </c>
+      <c r="K84">
+        <v>404.44509850171517</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>50.50939915117538</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>9.4499999999999886</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.85909090909090802</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>412.27702562224238</v>
+      </c>
+      <c r="W84">
+        <v>420.44526605867276</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-8.1682404364303807</v>
+      </c>
+      <c r="Y84">
+        <v>-7.5064454414854387</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>411.15</v>
+      </c>
+      <c r="D85">
+        <v>414</v>
+      </c>
+      <c r="E85">
+        <v>410</v>
+      </c>
+      <c r="F85">
+        <v>414</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>412.66666666666669</v>
+      </c>
+      <c r="H85">
+        <v>409.74158429856806</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>414.71692038436493</v>
+      </c>
+      <c r="K85">
+        <v>405.6795210568896</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>57.371804396360972</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>412.54209860343587</v>
+      </c>
+      <c r="W85">
+        <v>419.9678389432155</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-7.4257403397796224</v>
+      </c>
+      <c r="Y85">
+        <v>-7.4903044211442751</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>411.25</v>
+      </c>
+      <c r="D86">
+        <v>419</v>
+      </c>
+      <c r="E86">
+        <v>406.05</v>
+      </c>
+      <c r="F86">
+        <v>409</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>411.34999999999997</v>
+      </c>
+      <c r="H86">
+        <v>410.54579214928401</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>415.66871585450605</v>
+      </c>
+      <c r="K86">
+        <v>405.76184971091413</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>46.114325127054791</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>2.9499999999999886</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>12.949999999999989</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.22779922779922712</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>411.99716035675345</v>
+      </c>
+      <c r="W86">
+        <v>419.15540642890323</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-7.1582460721497796</v>
+      </c>
+      <c r="Y86">
+        <v>-7.4238927513453756</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>409</v>
+      </c>
+      <c r="D87">
+        <v>412.9</v>
+      </c>
+      <c r="E87">
+        <v>406</v>
+      </c>
+      <c r="F87">
+        <v>410</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>409.63333333333338</v>
+      </c>
+      <c r="H87">
+        <v>410.08956274130867</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>415.05344566461582</v>
+      </c>
+      <c r="K87">
+        <v>405.81477199737765</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>48.634076862897793</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>6.8999999999999773</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.57971014492753814</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>411.68990491725293</v>
+      </c>
+      <c r="W87">
+        <v>418.47722817491041</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-6.7873232576574765</v>
+      </c>
+      <c r="Y87">
+        <v>-7.2965788526077962</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>405</v>
+      </c>
+      <c r="D88">
+        <v>415</v>
+      </c>
+      <c r="E88">
+        <v>403</v>
+      </c>
+      <c r="F88">
+        <v>410.5</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>409.5</v>
+      </c>
+      <c r="H88">
+        <v>409.79478137065433</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>415.04156885025674</v>
+      </c>
+      <c r="K88">
+        <v>405.18926710907152</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>50.092652425632487</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>7.5</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.625</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>411.50684262229095</v>
+      </c>
+      <c r="W88">
+        <v>417.88632238417631</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-6.3794797618853636</v>
+      </c>
+      <c r="Y88">
+        <v>-7.11315903446331</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>412.95</v>
+      </c>
+      <c r="D89">
+        <v>412.95</v>
+      </c>
+      <c r="E89">
+        <v>407</v>
+      </c>
+      <c r="F89">
+        <v>408</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>409.31666666666666</v>
+      </c>
+      <c r="H89">
+        <v>409.5557240186605</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>414.57677577242191</v>
+      </c>
+      <c r="K89">
+        <v>405.5916521959445</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>42.542483155046639</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>5.9499999999999886</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.16806722689075662</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>410.9673283727077</v>
+      </c>
+      <c r="W89">
+        <v>417.15400220757067</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-6.1866738348629724</v>
+      </c>
+      <c r="Y89">
+        <v>-6.9278619945432425</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>402</v>
+      </c>
+      <c r="D90">
+        <v>409</v>
+      </c>
+      <c r="E90">
+        <v>401.1</v>
+      </c>
+      <c r="F90">
+        <v>405</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>405.0333333333333</v>
+      </c>
+      <c r="H90">
+        <v>407.2945286759969</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>413.33749226743925</v>
+      </c>
+      <c r="K90">
+        <v>404.59350726351238</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>34.697793352094536</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>3.8999999999999773</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>7.8999999999999773</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.49367088607594789</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>410.04927785382961</v>
+      </c>
+      <c r="W90">
+        <v>416.25370574775064</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-6.2044278939210358</v>
+      </c>
+      <c r="Y90">
+        <v>-6.7831751744188011</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>405.25</v>
+      </c>
+      <c r="D91">
+        <v>407.15</v>
+      </c>
+      <c r="E91">
+        <v>400.05</v>
+      </c>
+      <c r="F91">
+        <v>401.35</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>402.85000000000008</v>
+      </c>
+      <c r="H91">
+        <v>405.07226433799849</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>411.96249398578607</v>
+      </c>
+      <c r="K91">
+        <v>403.58383898273183</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>27.098409744420586</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>7.0999999999999659</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.18309859154929825</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V91">
+        <v>408.71092741477889</v>
+      </c>
+      <c r="W91">
+        <v>415.14972754421353</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-6.4388001294346395</v>
+      </c>
+      <c r="Y91">
+        <v>-6.7143001654219692</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>405</v>
+      </c>
+      <c r="D92">
+        <v>406.95</v>
+      </c>
+      <c r="E92">
+        <v>400.1</v>
+      </c>
+      <c r="F92">
+        <v>403.2</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>403.41666666666669</v>
+      </c>
+      <c r="H92">
+        <v>404.24446550233256</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>410.84860643338914</v>
+      </c>
+      <c r="K92">
+        <v>402.80965254212475</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>35.981622281537291</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>3.0999999999999659</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>6.8499999999999659</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.45255474452554473</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>407.86309242788985</v>
+      </c>
+      <c r="W92">
+        <v>414.26456254093847</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-6.4014701130486173</v>
+      </c>
+      <c r="Y92">
+        <v>-6.6517341549472988</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>401.55</v>
+      </c>
+      <c r="D93">
+        <v>407.15</v>
+      </c>
+      <c r="E93">
+        <v>392.15</v>
+      </c>
+      <c r="F93">
+        <v>399</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>399.43333333333334</v>
+      </c>
+      <c r="H93">
+        <v>401.83889941783298</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>410.02669389263599</v>
+      </c>
+      <c r="K93">
+        <v>400.44084086609701</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>26.736301946872914</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>6.8500000000000227</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.45666666666666816</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>406.49953974667602</v>
+      </c>
+      <c r="W93">
+        <v>413.13385420457269</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-6.6343144578966644</v>
+      </c>
+      <c r="Y93">
+        <v>-6.6482502155371721</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>399</v>
+      </c>
+      <c r="D94">
+        <v>412</v>
+      </c>
+      <c r="E94">
+        <v>394.4</v>
+      </c>
+      <c r="F94">
+        <v>412</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>406.13333333333338</v>
+      </c>
+      <c r="H94">
+        <v>403.98611637558315</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>410.46520636093908</v>
+      </c>
+      <c r="K94">
+        <v>399.0984317847421</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>63.260409347217873</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>17.600000000000023</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>17.600000000000023</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>407.34576440103353</v>
+      </c>
+      <c r="W94">
+        <v>413.04986500423399</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-5.7041006032004589</v>
+      </c>
+      <c r="Y94">
+        <v>-6.4594202930698295</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>408</v>
+      </c>
+      <c r="D95">
+        <v>418.85</v>
+      </c>
+      <c r="E95">
+        <v>404</v>
+      </c>
+      <c r="F95">
+        <v>416</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>412.95</v>
+      </c>
+      <c r="H95">
+        <v>408.4680581877916</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>412.32849383628593</v>
+      </c>
+      <c r="K95">
+        <v>400.18766916591051</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>69.171525140074351</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>14.850000000000023</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.80808080808080684</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V95">
+        <v>408.67718526241299</v>
+      </c>
+      <c r="W95">
+        <v>413.26839352243888</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-4.5912082600258941</v>
+      </c>
+      <c r="Y95">
+        <v>-6.0857778864610426</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>416</v>
+      </c>
+      <c r="D96">
+        <v>416</v>
+      </c>
+      <c r="E96">
+        <v>401.55</v>
+      </c>
+      <c r="F96">
+        <v>406</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>407.84999999999997</v>
+      </c>
+      <c r="H96">
+        <v>408.15902909389581</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>413.14438409488906</v>
+      </c>
+      <c r="K96">
+        <v>400.49040935126374</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>46.028788274101352</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>4.4499999999999886</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>14.449999999999989</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.30795847750864996</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>408.26531060665712</v>
+      </c>
+      <c r="W96">
+        <v>412.72999400225825</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-4.4646833956011278</v>
+      </c>
+      <c r="Y96">
+        <v>-5.7615589882890594</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>412</v>
+      </c>
+      <c r="D97">
+        <v>430</v>
+      </c>
+      <c r="E97">
+        <v>402.1</v>
+      </c>
+      <c r="F97">
+        <v>409</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>413.7</v>
+      </c>
+      <c r="H97">
+        <v>410.92951454694787</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>416.89007651824704</v>
+      </c>
+      <c r="K97">
+        <v>400.84809616209401</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>52.04536209683053</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>6.8999999999999773</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>27.899999999999977</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.24731182795698864</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>408.37833974409449</v>
+      </c>
+      <c r="W97">
+        <v>412.45369815023912</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-4.0753584061446304</v>
+      </c>
+      <c r="Y97">
+        <v>-5.4243188718601738</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>409</v>
+      </c>
+      <c r="D98">
+        <v>410</v>
+      </c>
+      <c r="E98">
+        <v>403.25</v>
+      </c>
+      <c r="F98">
+        <v>405.85</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>406.36666666666662</v>
+      </c>
+      <c r="H98">
+        <v>408.64809060680727</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>415.35894840308106</v>
+      </c>
+      <c r="K98">
+        <v>401.38185257051754</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>45.402354240384994</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>6.75</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.38518518518518857</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>407.9893643988492</v>
+      </c>
+      <c r="W98">
+        <v>411.96453532429547</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-3.9751709254462639</v>
+      </c>
+      <c r="Y98">
+        <v>-5.134489282577392</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>406.3</v>
+      </c>
+      <c r="D99">
+        <v>409</v>
+      </c>
+      <c r="E99">
+        <v>403.65</v>
+      </c>
+      <c r="F99">
+        <v>404.15</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>405.59999999999997</v>
+      </c>
+      <c r="H99">
+        <v>407.12404530340359</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>413.94584875795192</v>
+      </c>
+      <c r="K99">
+        <v>401.88588533262475</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>41.802893386385158</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>5.3500000000000227</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>9.3457943925233253E-2</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>407.39869295287241</v>
+      </c>
+      <c r="W99">
+        <v>411.38568085582915</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-3.9869879029567414</v>
+      </c>
+      <c r="Y99">
+        <v>-4.9049890066532615</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>405</v>
+      </c>
+      <c r="D100">
+        <v>405</v>
+      </c>
+      <c r="E100">
+        <v>387</v>
+      </c>
+      <c r="F100">
+        <v>395</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>395.66666666666669</v>
+      </c>
+      <c r="H100">
+        <v>401.39535598503517</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>411.95788236729595</v>
+      </c>
+      <c r="K100">
+        <v>398.5779108142637</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>27.261827700732972</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>405.49120172935358</v>
+      </c>
+      <c r="W100">
+        <v>410.17192671836034</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-4.6807249890067624</v>
+      </c>
+      <c r="Y100">
+        <v>-4.8601362031239619</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>398.95</v>
+      </c>
+      <c r="D101">
+        <v>407.4</v>
+      </c>
+      <c r="E101">
+        <v>391</v>
+      </c>
+      <c r="F101">
+        <v>392.1</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>396.83333333333331</v>
+      </c>
+      <c r="H101">
+        <v>399.11434465918421</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>410.94501961900795</v>
+      </c>
+      <c r="K101">
+        <v>396.89393063331619</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>23.959938408189547</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>16.399999999999977</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>6.7073170731708792E-2</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>403.43101684791458</v>
+      </c>
+      <c r="W101">
+        <v>408.8332654799633</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-5.4022486320487246</v>
+      </c>
+      <c r="Y101">
+        <v>-4.9685586889089146</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>397</v>
+      </c>
+      <c r="D102">
+        <v>400.9</v>
+      </c>
+      <c r="E102">
+        <v>389</v>
+      </c>
+      <c r="F102">
+        <v>390.8</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>393.56666666666666</v>
+      </c>
+      <c r="H102">
+        <v>396.34050566292547</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>408.71279303700618</v>
+      </c>
+      <c r="K102">
+        <v>395.1397238259126</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>22.437179433595958</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>11.899999999999977</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.15126050420168191</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>401.48778348669697</v>
+      </c>
+      <c r="W102">
+        <v>407.49746803700305</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-6.0096845503060763</v>
+      </c>
+      <c r="Y102">
+        <v>-5.1767838611883468</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>391</v>
+      </c>
+      <c r="D103">
+        <v>397.7</v>
+      </c>
+      <c r="E103">
+        <v>375.55</v>
+      </c>
+      <c r="F103">
+        <v>375.55</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>382.93333333333334</v>
+      </c>
+      <c r="H103">
+        <v>389.63691949812937</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>406.26550569544924</v>
+      </c>
+      <c r="K103">
+        <v>390.78645186459869</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>11.613884701179096</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>22.149999999999977</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>397.49735525797433</v>
+      </c>
+      <c r="W103">
+        <v>405.13098892315099</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-7.6336336651766601</v>
+      </c>
+      <c r="Y103">
+        <v>-5.6681538219860093</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" si="35"/>
+        <v>395.15000000000003</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="36"/>
+        <v>389.25</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="37"/>
+        <v>386.65000000000003</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="38"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>384.5</v>
+      </c>
+      <c r="D104">
+        <v>391</v>
+      </c>
+      <c r="E104">
+        <v>380.2</v>
+      </c>
+      <c r="F104">
+        <v>390</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>387.06666666666666</v>
+      </c>
+      <c r="H104">
+        <v>388.35179308239799</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>402.87317109646051</v>
+      </c>
+      <c r="K104">
+        <v>388.43390700579897</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>43.751336966209621</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>9.8000000000000114</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>10.800000000000011</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.90740740740740755</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>396.34391598751677</v>
+      </c>
+      <c r="W104">
+        <v>404.01017492884353</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-7.6662589413267597</v>
+      </c>
+      <c r="Y104">
+        <v>-6.0677748458541592</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
